--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
   <si>
     <t>Username</t>
   </si>
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting230625-02</t>
+    <t>Sanitytesting040725-00</t>
   </si>
   <si>
     <t>2</t>
@@ -263,6 +263,9 @@
     <t>600000</t>
   </si>
   <si>
+    <t>04072500</t>
+  </si>
+  <si>
     <t>Akola</t>
   </si>
   <si>
@@ -275,10 +278,10 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>23062502</t>
-  </si>
-  <si>
-    <t>02-05-2025</t>
+    <t>04072501</t>
+  </si>
+  <si>
+    <t>01-06-2025</t>
   </si>
   <si>
     <t>January</t>
@@ -290,7 +293,10 @@
     <t>June</t>
   </si>
   <si>
-    <t>EST/00484</t>
+    <t>EST/00501</t>
+  </si>
+  <si>
+    <t>EST/00504</t>
   </si>
 </sst>
 </file>
@@ -916,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -980,6 +986,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,249 +1255,249 @@
   <sheetPr/>
   <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="40.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="5.28571428571429" customWidth="1"/>
-    <col min="10" max="10" width="13.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="31.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="42.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="14.4285714285714" customWidth="1"/>
-    <col min="17" max="17" width="13.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="11.7142857142857" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="23" width="21.2857142857143" customWidth="1"/>
-    <col min="24" max="24" width="18.5714285714286" customWidth="1"/>
-    <col min="25" max="25" width="15.5714285714286" customWidth="1"/>
-    <col min="26" max="26" width="16.5714285714286" customWidth="1"/>
-    <col min="27" max="27" width="12.2857142857143" customWidth="1"/>
-    <col min="28" max="28" width="16.7142857142857" customWidth="1"/>
-    <col min="29" max="29" width="12.5714285714286" customWidth="1"/>
-    <col min="30" max="30" width="29.7142857142857" customWidth="1"/>
-    <col min="31" max="31" width="16.8571428571429" customWidth="1"/>
-    <col min="32" max="32" width="18.2857142857143" customWidth="1"/>
-    <col min="33" max="33" width="13.7142857142857" customWidth="1"/>
-    <col min="34" max="34" width="18.1428571428571" customWidth="1"/>
-    <col min="35" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="14.2857142857143" customWidth="1"/>
-    <col min="39" max="39" width="24.4285714285714" customWidth="1"/>
-    <col min="40" max="40" width="14" customWidth="1"/>
-    <col min="42" max="42" width="14.1428571428571" customWidth="1"/>
-    <col min="44" max="44" width="14.2857142857143" customWidth="1"/>
-    <col min="45" max="45" width="17.2857142857143" customWidth="1"/>
-    <col min="46" max="46" width="11" customWidth="1"/>
-    <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="49" width="23.4285714285714" customWidth="1"/>
-    <col min="50" max="50" width="25.1428571428571" customWidth="1"/>
-    <col min="51" max="51" width="23.7142857142857" customWidth="1"/>
-    <col min="52" max="52" width="17.5714285714286" customWidth="1"/>
-    <col min="53" max="53" width="21.2857142857143" customWidth="1"/>
-    <col min="54" max="54" width="18.5714285714286" customWidth="1"/>
-    <col min="56" max="56" width="25.1428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5714285714286"/>
+    <col min="2" max="2" customWidth="true" width="11.0"/>
+    <col min="3" max="3" customWidth="true" width="40.5714285714286"/>
+    <col min="4" max="4" customWidth="true" width="20.2857142857143"/>
+    <col min="9" max="9" customWidth="true" width="5.28571428571429"/>
+    <col min="10" max="10" customWidth="true" width="13.8571428571429"/>
+    <col min="11" max="11" customWidth="true" width="31.4285714285714"/>
+    <col min="13" max="13" customWidth="true" width="18.0"/>
+    <col min="14" max="14" customWidth="true" width="42.1428571428571"/>
+    <col min="15" max="15" customWidth="true" width="14.0"/>
+    <col min="16" max="16" customWidth="true" width="14.4285714285714"/>
+    <col min="17" max="17" customWidth="true" width="13.8571428571429"/>
+    <col min="18" max="18" customWidth="true" width="11.7142857142857"/>
+    <col min="20" max="20" customWidth="true" width="14.0"/>
+    <col min="21" max="23" customWidth="true" width="21.2857142857143"/>
+    <col min="24" max="24" customWidth="true" width="18.5714285714286"/>
+    <col min="25" max="25" customWidth="true" width="15.5714285714286"/>
+    <col min="26" max="26" customWidth="true" width="16.5714285714286"/>
+    <col min="27" max="27" customWidth="true" width="12.2857142857143"/>
+    <col min="28" max="28" customWidth="true" width="16.7142857142857"/>
+    <col min="29" max="29" customWidth="true" width="12.5714285714286"/>
+    <col min="30" max="30" customWidth="true" width="29.7142857142857"/>
+    <col min="31" max="31" customWidth="true" width="16.8571428571429"/>
+    <col min="32" max="32" customWidth="true" width="18.2857142857143"/>
+    <col min="33" max="33" customWidth="true" width="13.7142857142857"/>
+    <col min="34" max="34" customWidth="true" width="18.1428571428571"/>
+    <col min="35" max="35" customWidth="true" width="14.0"/>
+    <col min="36" max="36" customWidth="true" width="14.2857142857143"/>
+    <col min="39" max="39" customWidth="true" width="24.4285714285714"/>
+    <col min="40" max="40" customWidth="true" width="14.0"/>
+    <col min="42" max="42" customWidth="true" width="14.1428571428571"/>
+    <col min="44" max="44" customWidth="true" width="14.2857142857143"/>
+    <col min="45" max="45" customWidth="true" width="17.2857142857143"/>
+    <col min="46" max="46" customWidth="true" width="11.0"/>
+    <col min="47" max="47" customWidth="true" width="13.0"/>
+    <col min="48" max="49" customWidth="true" width="23.4285714285714"/>
+    <col min="50" max="50" customWidth="true" width="25.1428571428571"/>
+    <col min="51" max="51" customWidth="true" width="23.7142857142857"/>
+    <col min="52" max="52" customWidth="true" width="17.5714285714286"/>
+    <col min="53" max="53" customWidth="true" width="21.2857142857143"/>
+    <col min="54" max="54" customWidth="true" width="18.5714285714286"/>
+    <col min="56" max="56" customWidth="true" width="25.1428571428571"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>22</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:60">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1502,19 +1515,19 @@
       <c r="I2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>69</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -1532,7 +1545,7 @@
       <c r="S2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>73</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -1568,32 +1581,32 @@
       <c r="AE2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF2">
-        <v>23062502</v>
+      <c r="AF2" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ2" t="s">
         <v>79</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AJ2" t="s" s="0">
         <v>80</v>
+      </c>
+      <c r="AK2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>71</v>
@@ -1604,66 +1617,66 @@
       <c r="AQ2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AR2" t="s">
-        <v>83</v>
+      <c r="AR2" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="AW2">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>83</v>
-      </c>
       <c r="AY2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="BB2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BD2" t="s">
-        <v>83</v>
+      <c r="BD2" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BF2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BG2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>86</v>
+      <c r="A3" t="s" s="0">
+        <v>88</v>
       </c>
       <c r="K3" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BN3" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:BN3" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting040725-00</t>
+    <t>Sanitytesting070725-02</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>04072500</t>
+    <t>07072506</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>04072501</t>
+    <t>07072505</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -293,10 +293,10 @@
     <t>June</t>
   </si>
   <si>
-    <t>EST/00501</t>
-  </si>
-  <si>
     <t>EST/00504</t>
+  </si>
+  <si>
+    <t>EST/00508</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1255,8 @@
   <sheetPr/>
   <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting070725-02</t>
+    <t>Sanitytesting080725-00</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>07072506</t>
+    <t>08072506</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>07072505</t>
+    <t>08072505</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -293,10 +293,10 @@
     <t>June</t>
   </si>
   <si>
-    <t>EST/00504</t>
-  </si>
-  <si>
     <t>EST/00508</t>
+  </si>
+  <si>
+    <t>EST/00510</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1255,8 @@
   <sheetPr/>
   <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>Username</t>
   </si>
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting080725-00</t>
+    <t>Sanitytesting110725-00</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>08072506</t>
+    <t>11072508</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>08072505</t>
+    <t>11072507</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -293,10 +293,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>EST/00508</t>
-  </si>
-  <si>
-    <t>EST/00510</t>
+    <t>EST/00513</t>
   </si>
 </sst>
 </file>
@@ -922,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -986,13 +983,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1255,249 +1245,249 @@
   <sheetPr/>
   <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.5714285714286"/>
-    <col min="2" max="2" customWidth="true" width="11.0"/>
-    <col min="3" max="3" customWidth="true" width="40.5714285714286"/>
-    <col min="4" max="4" customWidth="true" width="20.2857142857143"/>
-    <col min="9" max="9" customWidth="true" width="5.28571428571429"/>
-    <col min="10" max="10" customWidth="true" width="13.8571428571429"/>
-    <col min="11" max="11" customWidth="true" width="31.4285714285714"/>
-    <col min="13" max="13" customWidth="true" width="18.0"/>
-    <col min="14" max="14" customWidth="true" width="42.1428571428571"/>
-    <col min="15" max="15" customWidth="true" width="14.0"/>
-    <col min="16" max="16" customWidth="true" width="14.4285714285714"/>
-    <col min="17" max="17" customWidth="true" width="13.8571428571429"/>
-    <col min="18" max="18" customWidth="true" width="11.7142857142857"/>
-    <col min="20" max="20" customWidth="true" width="14.0"/>
-    <col min="21" max="23" customWidth="true" width="21.2857142857143"/>
-    <col min="24" max="24" customWidth="true" width="18.5714285714286"/>
-    <col min="25" max="25" customWidth="true" width="15.5714285714286"/>
-    <col min="26" max="26" customWidth="true" width="16.5714285714286"/>
-    <col min="27" max="27" customWidth="true" width="12.2857142857143"/>
-    <col min="28" max="28" customWidth="true" width="16.7142857142857"/>
-    <col min="29" max="29" customWidth="true" width="12.5714285714286"/>
-    <col min="30" max="30" customWidth="true" width="29.7142857142857"/>
-    <col min="31" max="31" customWidth="true" width="16.8571428571429"/>
-    <col min="32" max="32" customWidth="true" width="18.2857142857143"/>
-    <col min="33" max="33" customWidth="true" width="13.7142857142857"/>
-    <col min="34" max="34" customWidth="true" width="18.1428571428571"/>
-    <col min="35" max="35" customWidth="true" width="14.0"/>
-    <col min="36" max="36" customWidth="true" width="14.2857142857143"/>
-    <col min="39" max="39" customWidth="true" width="24.4285714285714"/>
-    <col min="40" max="40" customWidth="true" width="14.0"/>
-    <col min="42" max="42" customWidth="true" width="14.1428571428571"/>
-    <col min="44" max="44" customWidth="true" width="14.2857142857143"/>
-    <col min="45" max="45" customWidth="true" width="17.2857142857143"/>
-    <col min="46" max="46" customWidth="true" width="11.0"/>
-    <col min="47" max="47" customWidth="true" width="13.0"/>
-    <col min="48" max="49" customWidth="true" width="23.4285714285714"/>
-    <col min="50" max="50" customWidth="true" width="25.1428571428571"/>
-    <col min="51" max="51" customWidth="true" width="23.7142857142857"/>
-    <col min="52" max="52" customWidth="true" width="17.5714285714286"/>
-    <col min="53" max="53" customWidth="true" width="21.2857142857143"/>
-    <col min="54" max="54" customWidth="true" width="18.5714285714286"/>
-    <col min="56" max="56" customWidth="true" width="25.1428571428571"/>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="40.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="5.28571428571429" customWidth="1"/>
+    <col min="10" max="10" width="13.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="31.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="42.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14.4285714285714" customWidth="1"/>
+    <col min="17" max="17" width="13.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="11.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="23" width="21.2857142857143" customWidth="1"/>
+    <col min="24" max="24" width="18.5714285714286" customWidth="1"/>
+    <col min="25" max="25" width="15.5714285714286" customWidth="1"/>
+    <col min="26" max="26" width="16.5714285714286" customWidth="1"/>
+    <col min="27" max="27" width="12.2857142857143" customWidth="1"/>
+    <col min="28" max="28" width="16.7142857142857" customWidth="1"/>
+    <col min="29" max="29" width="12.5714285714286" customWidth="1"/>
+    <col min="30" max="30" width="29.7142857142857" customWidth="1"/>
+    <col min="31" max="31" width="16.8571428571429" customWidth="1"/>
+    <col min="32" max="32" width="18.2857142857143" customWidth="1"/>
+    <col min="33" max="33" width="13.7142857142857" customWidth="1"/>
+    <col min="34" max="34" width="18.1428571428571" customWidth="1"/>
+    <col min="35" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="14.2857142857143" customWidth="1"/>
+    <col min="39" max="39" width="24.4285714285714" customWidth="1"/>
+    <col min="40" max="40" width="14" customWidth="1"/>
+    <col min="42" max="42" width="14.1428571428571" customWidth="1"/>
+    <col min="44" max="44" width="14.2857142857143" customWidth="1"/>
+    <col min="45" max="45" width="17.2857142857143" customWidth="1"/>
+    <col min="46" max="46" width="11" customWidth="1"/>
+    <col min="47" max="47" width="13" customWidth="1"/>
+    <col min="48" max="49" width="23.4285714285714" customWidth="1"/>
+    <col min="50" max="50" width="25.1428571428571" customWidth="1"/>
+    <col min="51" max="51" width="23.7142857142857" customWidth="1"/>
+    <col min="52" max="52" width="17.5714285714286" customWidth="1"/>
+    <col min="53" max="53" width="21.2857142857143" customWidth="1"/>
+    <col min="54" max="54" width="18.5714285714286" customWidth="1"/>
+    <col min="56" max="56" width="25.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" t="s" s="0">
+      <c r="BA1" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" t="s" s="0">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" t="s" s="0">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" t="s" s="0">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" t="s" s="0">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s" s="0">
+      <c r="BG1" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" t="s" s="0">
+      <c r="BH1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:60">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1515,19 +1505,19 @@
       <c r="I2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>65</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>67</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>68</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>69</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -1545,7 +1535,7 @@
       <c r="S2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>73</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -1587,16 +1577,16 @@
       <c r="AG2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" t="s" s="0">
+      <c r="AH2" t="s">
         <v>78</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="0">
+      <c r="AJ2" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>81</v>
       </c>
       <c r="AL2" s="3" t="s">
@@ -1617,7 +1607,7 @@
       <c r="AQ2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AR2" t="s" s="0">
+      <c r="AR2" t="s">
         <v>84</v>
       </c>
       <c r="AS2" s="3" t="s">
@@ -1626,16 +1616,16 @@
       <c r="AT2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AU2" t="s" s="0">
+      <c r="AU2" t="s">
         <v>86</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AW2" s="0">
+      <c r="AW2">
         <v>1</v>
       </c>
-      <c r="AX2" t="s" s="0">
+      <c r="AX2" t="s">
         <v>84</v>
       </c>
       <c r="AY2" s="3" t="s">
@@ -1644,7 +1634,7 @@
       <c r="AZ2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BA2" t="s" s="0">
+      <c r="BA2" t="s">
         <v>86</v>
       </c>
       <c r="BB2" s="3" t="s">
@@ -1653,7 +1643,7 @@
       <c r="BC2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BD2" t="s" s="0">
+      <c r="BD2" t="s">
         <v>84</v>
       </c>
       <c r="BE2" s="3" t="s">
@@ -1662,7 +1652,7 @@
       <c r="BF2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BG2" t="s" s="0">
+      <c r="BG2" t="s">
         <v>86</v>
       </c>
       <c r="BH2" s="3" t="s">
@@ -1670,13 +1660,13 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s" s="0">
-        <v>88</v>
+      <c r="A3" t="s">
+        <v>87</v>
       </c>
       <c r="K3" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BN3" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BN3" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting110725-00</t>
+    <t>Sanitytesting110725-01</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>11072508</t>
+    <t>110725010</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>11072507</t>
+    <t>11072511</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1245,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting110725-01</t>
+    <t>Sanitytesting140725-02</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>110725010</t>
+    <t>140725010</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>11072511</t>
+    <t>14072511</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1245,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting140725-02</t>
+    <t>Sanitytesting140725-03</t>
   </si>
   <si>
     <t>2</t>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting140725-03</t>
+    <t>Sanitytesting140725-04</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting140725-04</t>
+    <t>Sanitytesting140725-05</t>
   </si>
   <si>
     <t>2</t>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting140725-05</t>
+    <t>Sanitytesting140725-06</t>
   </si>
   <si>
     <t>2</t>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting140725-06</t>
+    <t>Sanitytesting140725-07</t>
   </si>
   <si>
     <t>2</t>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting140725-07</t>
+    <t>Sanitytesting150725-08</t>
   </si>
   <si>
     <t>2</t>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-08</t>
+    <t>Sanitytesting150725-09</t>
   </si>
   <si>
     <t>2</t>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-09</t>
+    <t>Sanitytesting150725-10</t>
   </si>
   <si>
     <t>2</t>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-10</t>
+    <t>Sanitytesting150725-11</t>
   </si>
   <si>
     <t>2</t>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>Username</t>
   </si>
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-11</t>
+    <t>Sanitytesting150725-12</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>140725010</t>
+    <t>150725010</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,10 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>14072511</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>15072511</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1243,13 +1246,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BH3"/>
+  <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -1590,13 +1593,13 @@
         <v>81</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>71</v>
@@ -1608,62 +1611,181 @@
         <v>61</v>
       </c>
       <c r="AR2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AT2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AU2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="AW2">
         <v>1</v>
       </c>
       <c r="AX2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BA2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BD2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BF2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BG2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>21</v>
+      </c>
+      <c r="V4">
+        <v>22</v>
+      </c>
+      <c r="W4">
+        <v>23</v>
+      </c>
+      <c r="X4">
+        <v>24</v>
+      </c>
+      <c r="Y4">
+        <v>25</v>
+      </c>
+      <c r="Z4">
+        <v>26</v>
+      </c>
+      <c r="AA4">
+        <v>27</v>
+      </c>
+      <c r="AB4">
+        <v>28</v>
+      </c>
+      <c r="AC4">
+        <v>29</v>
+      </c>
+      <c r="AD4">
+        <v>30</v>
+      </c>
+      <c r="AE4">
+        <v>31</v>
+      </c>
+      <c r="AF4">
+        <v>32</v>
+      </c>
+      <c r="AG4">
+        <v>33</v>
+      </c>
+      <c r="AH4">
+        <v>34</v>
+      </c>
+      <c r="AI4">
+        <v>35</v>
+      </c>
+      <c r="AJ4">
+        <v>36</v>
+      </c>
+      <c r="AK4">
+        <v>37</v>
+      </c>
+      <c r="AL4">
+        <v>38</v>
+      </c>
+      <c r="AM4">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BN3" etc:filterBottomFollowUsedRange="0">

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="6780"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BN$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BN$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-12</t>
+    <t>Sanitytesting150725-13</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1788,7 +1788,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BN3" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BN4" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-13</t>
+    <t>Sanitytesting150725-14</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-14</t>
+    <t>Sanitytesting150725-15</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-15</t>
+    <t>Sanitytesting150725-16</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-16</t>
+    <t>Sanitytesting150725-17</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-17</t>
+    <t>Sanitytesting150725-18</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-18</t>
+    <t>Sanitytesting150725-19</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-19</t>
+    <t>Sanitytesting150725-20</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-20</t>
+    <t>Sanitytesting150725-21</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-21</t>
+    <t>Sanitytesting150725-22</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-22</t>
+    <t>Sanitytesting150725-23</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-23</t>
+    <t>Sanitytesting150725-24</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-24</t>
+    <t>Sanitytesting150725-25</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-25</t>
+    <t>Sanitytesting150725-26</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-26</t>
+    <t>Sanitytesting150725-27</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-27</t>
+    <t>Sanitytesting150725-28</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-28</t>
+    <t>Sanitytesting150725-29</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-29</t>
+    <t>Sanitytesting150725-30</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-30</t>
+    <t>Sanitytesting150725-31</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-31</t>
+    <t>Sanitytesting150725-32</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-32</t>
+    <t>Sanitytesting150725-33</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-33</t>
+    <t>Sanitytesting150725-34</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-34</t>
+    <t>Sanitytesting150725-35</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-35</t>
+    <t>Sanitytesting150725-36</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-36</t>
+    <t>Sanitytesting150725-37</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-37</t>
+    <t>Sanitytesting150725-38</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-38</t>
+    <t>Sanitytesting150725-39</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-39</t>
+    <t>Sanitytesting150725-40</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-40</t>
+    <t>Sanitytesting150725-41</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-41</t>
+    <t>Sanitytesting150725-42</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="6780"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-42</t>
+    <t>Sanitytesting150725-43</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-43</t>
+    <t>Sanitytesting150725-44</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-44</t>
+    <t>Sanitytesting150725-46</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-46</t>
+    <t>Sanitytesting150725-47</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-47</t>
+    <t>Sanitytesting150725-48</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D2 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-48</t>
+    <t>Sanitytesting150725-49</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D2 D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-49</t>
+    <t>Sanitytesting150725-50</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-50</t>
+    <t>Sanitytesting150725-51</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>150725010</t>
+    <t>160725010</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>15072511</t>
+    <t>16072511</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-51</t>
+    <t>Sanitytesting150725-52</t>
   </si>
   <si>
     <t>2</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-52</t>
+    <t>Sanitytesting150725-53</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-53</t>
+    <t>Sanitytesting150725-54</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-54</t>
+    <t>Sanitytesting150725-55</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-55</t>
+    <t>Sanitytesting150725-56</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725010</t>
+    <t>160725013</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072511</t>
+    <t>16072512</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-56</t>
+    <t>Sanitytesting150725-57</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725013</t>
+    <t>160725014</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072512</t>
+    <t>16072515</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-57</t>
+    <t>Sanitytesting150725-58</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-58</t>
+    <t>Sanitytesting150725-59</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725014</t>
+    <t>160725016</t>
   </si>
   <si>
     <t>Akola</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-59</t>
+    <t>Sanitytesting150725-60</t>
   </si>
   <si>
     <t>2</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-60</t>
+    <t>Sanitytesting150725-61</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725016</t>
+    <t>160725018</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072515</t>
+    <t>16072517</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-61</t>
+    <t>Sanitytesting150725-62</t>
   </si>
   <si>
     <t>2</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-62</t>
+    <t>Sanitytesting150725-63</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-63</t>
+    <t>Sanitytesting150725-64</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-64</t>
+    <t>Sanitytesting150725-65</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-65</t>
+    <t>Sanitytesting150725-66</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-66</t>
+    <t>Sanitytesting150725-69</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725018</t>
+    <t>160725024</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072517</t>
+    <t>16072523</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -296,7 +296,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>EST/00513</t>
+    <t>EST/00588</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-69</t>
+    <t>Sanitytesting150725-70</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-70</t>
+    <t>Sanitytesting150725-71</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-71</t>
+    <t>Sanitytesting150725-72</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-72</t>
+    <t>Sanitytesting150725-73</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-73</t>
+    <t>Sanitytesting150725-74</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-74</t>
+    <t>Sanitytesting150725-75</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-75</t>
+    <t>Sanitytesting150725-76</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-76</t>
+    <t>Sanitytesting150725-77</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725024</t>
+    <t>160725026</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072523</t>
+    <t>16072525</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-77</t>
+    <t>Sanitytesting150725-78</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725026</t>
+    <t>160725027</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072525</t>
+    <t>16072528</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-78</t>
+    <t>Sanitytesting150725-80</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-80</t>
+    <t>Sanitytesting150725-82</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725027</t>
+    <t>160725032</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072528</t>
+    <t>16072533</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-82</t>
+    <t>Sanitytesting150725-83</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-83</t>
+    <t>Sanitytesting150725-85</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-85</t>
+    <t>Sanitytesting150725-86</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-86</t>
+    <t>Sanitytesting150725-87</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-87</t>
+    <t>Sanitytesting150725-88</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725032</t>
+    <t>160725035</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072533</t>
+    <t>16072536</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="AD2" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-88</t>
+    <t>Sanitytesting150725-90</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725035</t>
+    <t>160725039</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072536</t>
+    <t>16072538</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD2" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-90</t>
+    <t>Sanitytesting150725-91</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725039</t>
+    <t>160725040</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072538</t>
+    <t>16072541</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-91</t>
+    <t>Sanitytesting150725-94</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-94</t>
+    <t>Sanitytesting150725-95</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-95</t>
+    <t>Sanitytesting150725-96</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725040</t>
+    <t>160725043</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072541</t>
+    <t>16072542</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-96</t>
+    <t>Sanitytesting150725-97</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725043</t>
+    <t>160725045</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072542</t>
+    <t>16072546</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-97</t>
+    <t>Sanitytesting150725-98</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725045</t>
+    <t>160725048</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072546</t>
+    <t>16072547</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-98</t>
+    <t>Sanitytesting150725-99</t>
   </si>
   <si>
     <t>2</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting150725-99</t>
+    <t>Sanitytesting180725-100</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725048</t>
+    <t>160725050</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072547</t>
+    <t>16072549</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-100</t>
+    <t>Sanitytesting180725-101</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725050</t>
+    <t>160725052</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072549</t>
+    <t>16072551</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-101</t>
+    <t>Sanitytesting180725-103</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725052</t>
+    <t>160725056</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072551</t>
+    <t>16072555</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-103</t>
+    <t>Sanitytesting180725-104</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-104</t>
+    <t>Sanitytesting180725-105</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-105</t>
+    <t>Sanitytesting180725-106</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-106</t>
+    <t>Sanitytesting180725-107</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725056</t>
+    <t>160725057</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072555</t>
+    <t>16072556</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-107</t>
+    <t>Sanitytesting180725-108</t>
   </si>
   <si>
     <t>2</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-108</t>
+    <t>Sanitytesting180725-109</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-109</t>
+    <t>Sanitytesting180725-110</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725057</t>
+    <t>160725059</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072556</t>
+    <t>16072560</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting180725-110</t>
+    <t>Sanitytesting210725-113</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>160725059</t>
+    <t>210725080</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>16072560</t>
+    <t>21072579</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -296,7 +296,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>EST/00588</t>
+    <t>EST/00639</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting210725-113</t>
+    <t>Sanitytesting220725-03</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>210725080</t>
+    <t>210725087</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>21072579</t>
+    <t>21072586</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -296,7 +296,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>EST/00639</t>
+    <t>EST/00641</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1248,7 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting220725-03</t>
+    <t>Sanitytesting220725-04</t>
   </si>
   <si>
     <t>2</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting220725-04</t>
+    <t>Sanitytesting220725-05</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>210725087</t>
+    <t>210725088</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>21072586</t>
+    <t>21072589</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting220725-05</t>
+    <t>Sanitytesting220725-06</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>210725088</t>
+    <t>210725092</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>21072589</t>
+    <t>21072591</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting220725-06</t>
+    <t>Sanitytesting220725-07</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>210725092</t>
+    <t>210725095</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>21072591</t>
+    <t>21072594</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting220725-07</t>
+    <t>Sanitytesting220725-08</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>210725095</t>
+    <t>210725097</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>21072594</t>
+    <t>21072596</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting220725-08</t>
+    <t>Sanitytesting220725-09</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>210725097</t>
+    <t>210725098</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>21072596</t>
+    <t>21072599</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting220725-09</t>
+    <t>Sanitytesting220725-10</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>210725098</t>
+    <t>210725099</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>21072599</t>
+    <t>210725101</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting220725-10</t>
+    <t>Sanitytesting230725-13</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>210725099</t>
+    <t>230725099</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>210725101</t>
+    <t>230725101</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting230725-13</t>
+    <t>Sanitytesting280725-16</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>230725099</t>
+    <t>280725199</t>
   </si>
   <si>
     <t>Akola</t>
@@ -281,7 +281,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>230725101</t>
+    <t>285725102</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -296,7 +296,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>EST/00641</t>
+    <t>EST/00670</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting280725-16</t>
+    <t>Sanitytesting280725-17</t>
   </si>
   <si>
     <t>2</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>Username</t>
   </si>
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting280725-17</t>
+    <t>Sanitytesting280725-18</t>
   </si>
   <si>
     <t>2</t>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>Aurangabad</t>
-  </si>
-  <si>
-    <t>28</t>
   </si>
   <si>
     <t>285725102</t>
@@ -1593,13 +1590,13 @@
         <v>81</v>
       </c>
       <c r="AL2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>71</v>
@@ -1611,60 +1608,60 @@
         <v>61</v>
       </c>
       <c r="AR2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="AT2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AU2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AW2">
         <v>1</v>
       </c>
       <c r="AX2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BA2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="BF2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BG2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K3" s="1"/>
     </row>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting280725-18</t>
+    <t>Sanitytesting280725-19</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting280725-19</t>
+    <t>Sanitytesting300725-01</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>280725199</t>
+    <t>300725200</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>285725102</t>
+    <t>305725103</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -293,7 +293,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>EST/00670</t>
+    <t>EST/00676</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1245,7 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-01</t>
+    <t>Sanitytesting300725-02</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>300725200</t>
+    <t>300725201</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>305725103</t>
+    <t>305725104</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1245,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-02</t>
+    <t>Sanitytesting300725-03</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>300725201</t>
+    <t>300725202</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>305725104</t>
+    <t>305725105</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1245,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-03</t>
+    <t>Sanitytesting300725-04</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>Username</t>
   </si>
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-04</t>
+    <t>Sanitytesting300725-05</t>
   </si>
   <si>
     <t>2</t>
@@ -269,28 +269,31 @@
     <t>Akola</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>ahmednagar</t>
+  </si>
+  <si>
+    <t>Aurangabad</t>
+  </si>
+  <si>
+    <t>305725105</t>
+  </si>
+  <si>
+    <t>01-06-2025</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
     <t>29</t>
-  </si>
-  <si>
-    <t>ahmednagar</t>
-  </si>
-  <si>
-    <t>Aurangabad</t>
-  </si>
-  <si>
-    <t>305725105</t>
-  </si>
-  <si>
-    <t>01-06-2025</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>June</t>
   </si>
   <si>
     <t>EST/00676</t>
@@ -1245,7 +1248,7 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1632,7 +1635,7 @@
         <v>85</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="BA2" t="s">
         <v>86</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" s="1"/>
     </row>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-05</t>
+    <t>Sanitytesting300725-06</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-06</t>
+    <t>Sanitytesting300725-07</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-07</t>
+    <t>Sanitytesting300725-08</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>300725202</t>
+    <t>300725203</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>305725105</t>
+    <t>305725106</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-08</t>
+    <t>Sanitytesting300725-09</t>
   </si>
   <si>
     <t>2</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-09</t>
+    <t>Sanitytesting300725-10</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>300725203</t>
+    <t>300725204</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>305725106</t>
+    <t>305725107</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting300725-10</t>
+    <t>Sanitytesting310725-12</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>300725204</t>
+    <t>310725205</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>305725107</t>
+    <t>315725108</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,7 +1248,7 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting310725-12</t>
+    <t>Sanitytesting310725-13</t>
   </si>
   <si>
     <t>2</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting310725-13</t>
+    <t>Sanitytesting310725-14</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting310725-14</t>
+    <t>Sanitytesting310725-15</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting310725-15</t>
+    <t>Sanitytesting310725-16</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting310725-16</t>
+    <t>Sanitytesting310725-17</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting310725-17</t>
+    <t>Sanitytesting310725-18</t>
   </si>
   <si>
     <t>2</t>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting310725-18</t>
+    <t>Sanitytesting310725-19</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>310725205</t>
+    <t>310725206</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>315725108</t>
+    <t>315725109</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting310725-19</t>
+    <t>Sanitytesting010825-21</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>310725206</t>
+    <t>010825207</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>315725109</t>
+    <t>018725101</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -296,7 +296,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>EST/00676</t>
+    <t>EST/00705</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting010825-21</t>
+    <t>Sanitytesting020825-00</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>010825207</t>
+    <t>020825200</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>018725101</t>
+    <t>028725101</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting020825-00</t>
+    <t>Sanitytesting030825-00</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>020825200</t>
+    <t>030825200</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>028725101</t>
+    <t>038725101</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,7 +1248,7 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
       <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting030825-00</t>
+    <t>Sanitytesting050825-00</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>030825200</t>
+    <t>050825200</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>038725101</t>
+    <t>058725101</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting050825-00</t>
+    <t>Sanitytesting050825-01</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>050825200</t>
+    <t>050825201</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>058725101</t>
+    <t>058725102</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting050825-01</t>
+    <t>Sanitytesting050825-04</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>050825201</t>
+    <t>050825204</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>058725102</t>
+    <t>058725103</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting050825-04</t>
+    <t>Sanitytesting060825-04</t>
   </si>
   <si>
     <t>2</t>
@@ -263,7 +263,7 @@
     <t>600000</t>
   </si>
   <si>
-    <t>050825204</t>
+    <t>060825204</t>
   </si>
   <si>
     <t>Akola</t>
@@ -278,7 +278,7 @@
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>058725103</t>
+    <t>068725103</t>
   </si>
   <si>
     <t>01-06-2025</t>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -212,7 +212,7 @@
     <t>Amazon seller services pvt ltd. {amazon}</t>
   </si>
   <si>
-    <t>Sanitytesting060825-04</t>
+    <t>Sanitytesting070825-04</t>
   </si>
   <si>
     <t>2</t>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>Username</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>4</t>
@@ -1248,8 +1251,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1560,7 +1563,7 @@
         <v>74</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>61</v>
@@ -1569,37 +1572,37 @@
         <v>72</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AH2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>71</v>
@@ -1611,60 +1614,60 @@
         <v>61</v>
       </c>
       <c r="AR2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AT2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AU2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="AW2">
         <v>1</v>
       </c>
       <c r="AX2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA2" t="s">
         <v>87</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BD2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BF2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BG2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" s="1"/>
     </row>

--- a/Presspro.xlsx
+++ b/Presspro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="6780"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>Username</t>
   </si>
@@ -257,9 +257,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -299,7 +296,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>EST/00705</t>
+    <t>EST/00873</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1563,7 +1560,7 @@
         <v>74</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>61</v>
@@ -1572,37 +1569,37 @@
         <v>72</v>
       </c>
       <c r="AD2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AH2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>82</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AM2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>71</v>
@@ -1614,60 +1611,60 @@
         <v>61</v>
       </c>
       <c r="AR2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="AT2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AU2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AW2">
         <v>1</v>
       </c>
       <c r="AX2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" t="s">
         <v>86</v>
       </c>
-      <c r="AZ2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>87</v>
-      </c>
       <c r="BB2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="BF2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BG2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="1"/>
     </row>
